--- a/Note/PAD_Order.xlsx
+++ b/Note/PAD_Order.xlsx
@@ -2785,12 +2785,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2799,11 +2814,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -3088,8 +3106,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P23" sqref="P23:V30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4284,6 +4302,7 @@
       <c r="AC13" s="1" t="s">
         <v>383</v>
       </c>
+      <c r="AD13" s="2"/>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
@@ -4654,6 +4673,7 @@
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
       <c r="B18" s="1" t="s">
         <v>512</v>
       </c>
@@ -4738,45 +4758,46 @@
       <c r="AC18" s="1" t="s">
         <v>603</v>
       </c>
+      <c r="AD18" s="2"/>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A19" t="s">
+      <c r="A19" s="2" t="s">
         <v>524</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>525</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="2" t="s">
         <v>526</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>527</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="2" t="s">
         <v>528</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>529</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G19" s="2" t="s">
         <v>530</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>531</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="2" t="s">
         <v>532</v>
       </c>
       <c r="J19" s="1" t="s">
         <v>533</v>
       </c>
-      <c r="K19" t="s">
+      <c r="K19" s="2" t="s">
         <v>534</v>
       </c>
       <c r="L19" s="1" t="s">
         <v>535</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="2" t="s">
         <v>536</v>
       </c>
       <c r="N19" s="1" t="s">
@@ -4791,84 +4812,84 @@
       <c r="Q19" s="1" t="s">
         <v>585</v>
       </c>
-      <c r="R19" t="s">
+      <c r="R19" s="2" t="s">
         <v>604</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>605</v>
       </c>
-      <c r="T19" t="s">
+      <c r="T19" s="2" t="s">
         <v>606</v>
       </c>
       <c r="U19" s="1" t="s">
         <v>607</v>
       </c>
-      <c r="V19" t="s">
+      <c r="V19" s="2" t="s">
         <v>608</v>
       </c>
       <c r="W19" s="1" t="s">
         <v>609</v>
       </c>
-      <c r="X19" t="s">
+      <c r="X19" s="2" t="s">
         <v>610</v>
       </c>
       <c r="Y19" s="1" t="s">
         <v>611</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Z19" s="2" t="s">
         <v>612</v>
       </c>
       <c r="AA19" s="1" t="s">
         <v>613</v>
       </c>
-      <c r="AB19" t="s">
+      <c r="AB19" s="2" t="s">
         <v>614</v>
       </c>
       <c r="AC19" s="1" t="s">
         <v>615</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AD19" s="2" t="s">
         <v>616</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A20" t="s">
+      <c r="A20" s="2" t="s">
         <v>570</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>571</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="2" t="s">
         <v>537</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>538</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" s="2" t="s">
         <v>539</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>540</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G20" s="2" t="s">
         <v>541</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>542</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="2" t="s">
         <v>543</v>
       </c>
       <c r="J20" s="1" t="s">
         <v>544</v>
       </c>
-      <c r="K20" t="s">
+      <c r="K20" s="2" t="s">
         <v>545</v>
       </c>
       <c r="L20" s="1" t="s">
         <v>546</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="2" t="s">
         <v>547</v>
       </c>
       <c r="N20" s="1" t="s">
@@ -4883,84 +4904,84 @@
       <c r="Q20" s="1" t="s">
         <v>587</v>
       </c>
-      <c r="R20" t="s">
+      <c r="R20" s="2" t="s">
         <v>617</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>618</v>
       </c>
-      <c r="T20" t="s">
+      <c r="T20" s="2" t="s">
         <v>619</v>
       </c>
       <c r="U20" s="1" t="s">
         <v>620</v>
       </c>
-      <c r="V20" t="s">
+      <c r="V20" s="2" t="s">
         <v>621</v>
       </c>
       <c r="W20" s="1" t="s">
         <v>622</v>
       </c>
-      <c r="X20" t="s">
+      <c r="X20" s="2" t="s">
         <v>623</v>
       </c>
       <c r="Y20" s="1" t="s">
         <v>624</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Z20" s="2" t="s">
         <v>625</v>
       </c>
       <c r="AA20" s="1" t="s">
         <v>626</v>
       </c>
-      <c r="AB20" t="s">
+      <c r="AB20" s="2" t="s">
         <v>627</v>
       </c>
       <c r="AC20" s="1" t="s">
         <v>628</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AD20" s="2" t="s">
         <v>629</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A21" t="s">
+      <c r="A21" s="2" t="s">
         <v>567</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>568</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="2" t="s">
         <v>569</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>548</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" s="2" t="s">
         <v>549</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>550</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G21" s="2" t="s">
         <v>551</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>552</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="2" t="s">
         <v>553</v>
       </c>
       <c r="J21" s="1" t="s">
         <v>554</v>
       </c>
-      <c r="K21" t="s">
+      <c r="K21" s="2" t="s">
         <v>555</v>
       </c>
       <c r="L21" s="1" t="s">
         <v>556</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="2" t="s">
         <v>557</v>
       </c>
       <c r="N21" s="1" t="s">
@@ -4975,84 +4996,84 @@
       <c r="Q21" s="1" t="s">
         <v>589</v>
       </c>
-      <c r="R21" t="s">
+      <c r="R21" s="2" t="s">
         <v>630</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>631</v>
       </c>
-      <c r="T21" t="s">
+      <c r="T21" s="2" t="s">
         <v>632</v>
       </c>
       <c r="U21" s="1" t="s">
         <v>633</v>
       </c>
-      <c r="V21" t="s">
+      <c r="V21" s="2" t="s">
         <v>634</v>
       </c>
       <c r="W21" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="X21" t="s">
+      <c r="X21" s="2" t="s">
         <v>636</v>
       </c>
       <c r="Y21" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Z21" s="2" t="s">
         <v>638</v>
       </c>
       <c r="AA21" s="1" t="s">
         <v>639</v>
       </c>
-      <c r="AB21" t="s">
+      <c r="AB21" s="2" t="s">
         <v>640</v>
       </c>
       <c r="AC21" s="1" t="s">
         <v>641</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AD21" s="2" t="s">
         <v>642</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.15">
-      <c r="A22" t="s">
+      <c r="A22" s="2" t="s">
         <v>572</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>573</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="2" t="s">
         <v>574</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="2" t="s">
         <v>558</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>559</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G22" s="2" t="s">
         <v>560</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>561</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I22" s="2" t="s">
         <v>562</v>
       </c>
       <c r="J22" s="1" t="s">
         <v>563</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K22" s="2" t="s">
         <v>564</v>
       </c>
       <c r="L22" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="2" t="s">
         <v>566</v>
       </c>
       <c r="N22" s="1" t="s">
@@ -5067,43 +5088,43 @@
       <c r="Q22" s="1" t="s">
         <v>591</v>
       </c>
-      <c r="R22" t="s">
+      <c r="R22" s="2" t="s">
         <v>643</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>644</v>
       </c>
-      <c r="T22" t="s">
+      <c r="T22" s="2" t="s">
         <v>645</v>
       </c>
       <c r="U22" s="1" t="s">
         <v>646</v>
       </c>
-      <c r="V22" t="s">
+      <c r="V22" s="2" t="s">
         <v>647</v>
       </c>
       <c r="W22" s="1" t="s">
         <v>648</v>
       </c>
-      <c r="X22" t="s">
+      <c r="X22" s="2" t="s">
         <v>649</v>
       </c>
       <c r="Y22" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Z22" s="2" t="s">
         <v>651</v>
       </c>
       <c r="AA22" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="AB22" t="s">
+      <c r="AB22" s="2" t="s">
         <v>653</v>
       </c>
       <c r="AC22" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AD22" s="2" t="s">
         <v>655</v>
       </c>
     </row>
@@ -5845,7 +5866,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="95" fitToWidth="0" orientation="landscape" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>